--- a/ATUReports/Results/Run_9/(ATUReports) Run_9.xlsx
+++ b/ATUReports/Results/Run_9/(ATUReports) Run_9.xlsx
@@ -12,12 +12,42 @@
     <sheet name="ATU_TC_2" r:id="rId6" sheetId="4"/>
     <sheet name="ATU_TC_3" r:id="rId7" sheetId="5"/>
     <sheet name="ATU_TC_4" r:id="rId8" sheetId="6"/>
+    <sheet name="ATU_TC_5" r:id="rId9" sheetId="7"/>
+    <sheet name="ATU_TC_6" r:id="rId10" sheetId="8"/>
+    <sheet name="ATU_TC_7" r:id="rId11" sheetId="9"/>
+    <sheet name="ATU_TC_8" r:id="rId12" sheetId="10"/>
+    <sheet name="ATU_TC_9" r:id="rId13" sheetId="11"/>
+    <sheet name="ATU_TC_10" r:id="rId14" sheetId="12"/>
+    <sheet name="ATU_TC_11" r:id="rId15" sheetId="13"/>
+    <sheet name="ATU_TC_12" r:id="rId16" sheetId="14"/>
+    <sheet name="ATU_TC_13" r:id="rId17" sheetId="15"/>
+    <sheet name="ATU_TC_14" r:id="rId18" sheetId="16"/>
+    <sheet name="ATU_TC_15" r:id="rId19" sheetId="17"/>
+    <sheet name="ATU_TC_16" r:id="rId20" sheetId="18"/>
+    <sheet name="ATU_TC_17" r:id="rId21" sheetId="19"/>
+    <sheet name="ATU_TC_18" r:id="rId22" sheetId="20"/>
+    <sheet name="ATU_TC_19" r:id="rId23" sheetId="21"/>
+    <sheet name="ATU_TC_20" r:id="rId24" sheetId="22"/>
+    <sheet name="ATU_TC_21" r:id="rId25" sheetId="23"/>
+    <sheet name="ATU_TC_22" r:id="rId26" sheetId="24"/>
+    <sheet name="ATU_TC_23" r:id="rId27" sheetId="25"/>
+    <sheet name="ATU_TC_24" r:id="rId28" sheetId="26"/>
+    <sheet name="ATU_TC_25" r:id="rId29" sheetId="27"/>
+    <sheet name="ATU_TC_26" r:id="rId30" sheetId="28"/>
+    <sheet name="ATU_TC_27" r:id="rId31" sheetId="29"/>
+    <sheet name="ATU_TC_28" r:id="rId32" sheetId="30"/>
+    <sheet name="ATU_TC_29" r:id="rId33" sheetId="31"/>
+    <sheet name="ATU_TC_30" r:id="rId34" sheetId="32"/>
+    <sheet name="ATU_TC_31" r:id="rId35" sheetId="33"/>
+    <sheet name="ATU_TC_32" r:id="rId36" sheetId="34"/>
+    <sheet name="ATU_TC_33" r:id="rId37" sheetId="35"/>
+    <sheet name="ATU_TC_34" r:id="rId38" sheetId="36"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="289">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -58,7 +88,7 @@
     <t>BatchExecution</t>
   </si>
   <si>
-    <t>UpdateVirtualMachine_Delete</t>
+    <t>UpdateVMScenario</t>
   </si>
   <si>
     <t>cNetLoginScenario</t>
@@ -79,196 +109,811 @@
     <t>cNetLogoutScenario</t>
   </si>
   <si>
+    <t>31 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_2</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>79 Sec</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ATU_TC_3</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>87 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_4</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>47 Milli Sec</t>
   </si>
   <si>
-    <t>ATU_TC_2</t>
-  </si>
-  <si>
-    <t>UpdateVM_Delete</t>
+    <t>ATU_TC_5</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ATU_TC_6</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ATU_TC_7</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ATU_TC_8</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ATU_TC_9</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>62 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_10</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_63</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>94 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_11</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ATU_TC_12</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>63 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>78 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_14</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>109 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_15</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>ATU_TC_16</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ATU_TC_17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>ATU_TC_18</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ATU_TC_19</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>65 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_20</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>32 Milli Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_21</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ATU_TC_22</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ATU_TC_23</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>ATU_TC_24</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ATU_TC_25</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ATU_TC_26</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ATU_TC_27</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>ATU_TC_28</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ATU_TC_29</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>ATU_TC_30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ATU_TC_31</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>ATU_TC_32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>ATU_TC_33</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ATU_TC_34</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Input Value</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Line No</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Passing URL in to browser</t>
+  </si>
+  <si>
+    <t>https://cnetglobaldemo1.service-now.com/</t>
+  </si>
+  <si>
+    <t>URL Should be passed in to browser</t>
+  </si>
+  <si>
+    <t>URL Launched successfully</t>
+  </si>
+  <si>
+    <t>9 Sec</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Swicthing to Main Frame</t>
+  </si>
+  <si>
+    <t>gsft_main</t>
+  </si>
+  <si>
+    <t>Main Frame should be activited</t>
+  </si>
+  <si>
+    <t>Mainframe actitivited</t>
+  </si>
+  <si>
+    <t>149 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username should be clicked</t>
+  </si>
+  <si>
+    <t>UserName clicked successfully</t>
+  </si>
+  <si>
+    <t>246 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to username</t>
+  </si>
+  <si>
+    <t>maneeshn</t>
+  </si>
+  <si>
+    <t>Username should be entered</t>
+  </si>
+  <si>
+    <t>Username should be passed successfully</t>
+  </si>
+  <si>
+    <t>187 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Password</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Password should be clicked</t>
+  </si>
+  <si>
+    <t>Password clicked successfully</t>
+  </si>
+  <si>
+    <t>214 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to Password</t>
+  </si>
+  <si>
+    <t>Maneeshnama@6468</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Password should be passed successfully</t>
+  </si>
+  <si>
+    <t>252 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>sysverb_login</t>
+  </si>
+  <si>
+    <t>Login button should be clicked</t>
+  </si>
+  <si>
+    <t>Login button clicked succesfully</t>
+  </si>
+  <si>
+    <t>3 Sec</t>
+  </si>
+  <si>
+    <t>Go To TestSuite Sheet</t>
+  </si>
+  <si>
+    <t>2 Sec</t>
+  </si>
+  <si>
+    <t>Passed AIMS in FilterNavigator</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Find AIMS in search Navigator</t>
+  </si>
+  <si>
+    <t>Search Successful</t>
   </si>
   <si>
     <t>6 Sec</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>ATU_TC_3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>113 Milli Sec</t>
-  </si>
-  <si>
-    <t>ATU_TC_4</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input Value</t>
-  </si>
-  <si>
-    <t>Expected value</t>
-  </si>
-  <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>Passing URL in to browser</t>
-  </si>
-  <si>
-    <t>https://cnetglobaldemo1.service-now.com/</t>
-  </si>
-  <si>
-    <t>URL Should be passed in to browser</t>
-  </si>
-  <si>
-    <t>URL Launched successfully</t>
-  </si>
-  <si>
-    <t>9 Sec</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Swicthing to Main Frame</t>
-  </si>
-  <si>
-    <t>gsft_main</t>
-  </si>
-  <si>
-    <t>Main Frame should be activited</t>
-  </si>
-  <si>
-    <t>Mainframe actitivited</t>
-  </si>
-  <si>
-    <t>129 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username should be clicked</t>
-  </si>
-  <si>
-    <t>UserName clicked successfully</t>
-  </si>
-  <si>
-    <t>225 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to username</t>
-  </si>
-  <si>
-    <t>maneeshn</t>
-  </si>
-  <si>
-    <t>Username should be entered</t>
-  </si>
-  <si>
-    <t>Username should be passed successfully</t>
-  </si>
-  <si>
-    <t>159 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Password</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>Password should be clicked</t>
-  </si>
-  <si>
-    <t>Password clicked successfully</t>
-  </si>
-  <si>
-    <t>179 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to Password</t>
-  </si>
-  <si>
-    <t>Maneeshnama@6468</t>
-  </si>
-  <si>
-    <t>Password should be entered</t>
-  </si>
-  <si>
-    <t>Password should be passed successfully</t>
-  </si>
-  <si>
-    <t>249 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>sysverb_login</t>
-  </si>
-  <si>
-    <t>Login button should be clicked</t>
-  </si>
-  <si>
-    <t>Login button clicked succesfully</t>
-  </si>
-  <si>
-    <t>3 Sec</t>
-  </si>
-  <si>
-    <t>Go To TestSuite Sheet</t>
+    <t>clicked on launch Application</t>
+  </si>
+  <si>
+    <t>330b36b5134e7600aee43d7ed144b09a</t>
+  </si>
+  <si>
+    <t>Launch AIMS Application</t>
+  </si>
+  <si>
+    <t>Clicked Successful</t>
+  </si>
+  <si>
+    <t>79 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked the UpdateVM</t>
+  </si>
+  <si>
+    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Select UpdateVM from AIMS</t>
+  </si>
+  <si>
+    <t>Successfully Selected</t>
+  </si>
+  <si>
+    <t>Type of ServerOperation Field Choosen</t>
+  </si>
+  <si>
+    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
+  </si>
+  <si>
+    <t>Select Update Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerOperation field was successfully selected </t>
+  </si>
+  <si>
+    <t>Selected Project lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>Hit the Project LookupField</t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t>850 Milli Sec</t>
   </si>
   <si>
     <t>1 Sec</t>
   </si>
   <si>
-    <t>Passed AIMS in FilterNavigator</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Find AIMS in search Navigator</t>
-  </si>
-  <si>
-    <t>Search Successful</t>
-  </si>
-  <si>
-    <t>5 Sec</t>
-  </si>
-  <si>
-    <t>Clicked the UpdateVM</t>
-  </si>
-  <si>
-    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
-  </si>
-  <si>
-    <t>Select UpdateVM from AIMS</t>
+    <t>Selected PrimaryDataCenter lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryDataCenter LookupField</t>
+  </si>
+  <si>
+    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
+  </si>
+  <si>
+    <t>325 Milli Sec</t>
+  </si>
+  <si>
+    <t>Dallas Was Selected</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Choose one PrimarydataCenter</t>
+  </si>
+  <si>
+    <t>115 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryCloudPlatform lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryCloudPlatform LookupField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
+  </si>
+  <si>
+    <t>809 Milli Sec</t>
+  </si>
+  <si>
+    <t>Choosen PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>VMWare</t>
+  </si>
+  <si>
+    <t>Choose PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>174 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected VcenterHost</t>
+  </si>
+  <si>
+    <t>192.168.20.85</t>
+  </si>
+  <si>
+    <t>Select VcenterHost</t>
+  </si>
+  <si>
+    <t>Select Successful</t>
+  </si>
+  <si>
+    <t>307 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected ESXIHOST</t>
+  </si>
+  <si>
+    <t>192.168.10.227</t>
+  </si>
+  <si>
+    <t>Select ESXIHOST</t>
+  </si>
+  <si>
+    <t>345 Milli Sec</t>
+  </si>
+  <si>
+    <t>66 Milli Sec</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>265 Milli Sec</t>
+  </si>
+  <si>
+    <t>376 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected cluster field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
+  </si>
+  <si>
+    <t>click on Cluster Lookup field</t>
+  </si>
+  <si>
+    <t>Successfully hit the field</t>
+  </si>
+  <si>
+    <t>652 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected OpenStack-Aims</t>
+  </si>
+  <si>
+    <t>VMWare-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>Select one Cluster</t>
+  </si>
+  <si>
+    <t>Cluster select Successful</t>
+  </si>
+  <si>
+    <t>100 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked OrderNow</t>
+  </si>
+  <si>
+    <t>oi_order_now_button</t>
+  </si>
+  <si>
+    <t>Place Your order</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>184 Milli Sec</t>
+  </si>
+  <si>
+    <t>102 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked User Menu</t>
+  </si>
+  <si>
+    <t>user_info_dropdown</t>
+  </si>
+  <si>
+    <t>Select An User</t>
+  </si>
+  <si>
+    <t>Select ImpersonateUser</t>
+  </si>
+  <si>
+    <t>Impersonate User</t>
+  </si>
+  <si>
+    <t>Choose An User</t>
+  </si>
+  <si>
+    <t>User Select Successful</t>
+  </si>
+  <si>
+    <t>Clicked Search Bar</t>
+  </si>
+  <si>
+    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
+  </si>
+  <si>
+    <t>Slect Search for User</t>
+  </si>
+  <si>
+    <t>191 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed UserName</t>
+  </si>
+  <si>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>Provide UserName</t>
+  </si>
+  <si>
+    <t>Successfully Provided</t>
+  </si>
+  <si>
+    <t>378 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked SearchLabel</t>
+  </si>
+  <si>
+    <t>select2-result-label</t>
+  </si>
+  <si>
+    <t>Click search for user</t>
+  </si>
+  <si>
+    <t>440 Milli Sec</t>
+  </si>
+  <si>
+    <t>29 Milli Sec</t>
+  </si>
+  <si>
+    <t>passed the requests in FilterNavigator</t>
+  </si>
+  <si>
+    <t>Search for requests</t>
+  </si>
+  <si>
+    <t>Succesfully passed</t>
+  </si>
+  <si>
+    <t>7 Sec</t>
+  </si>
+  <si>
+    <t>Clicked on Service catalog Requests</t>
+  </si>
+  <si>
+    <t>17e0b4990a04bf15013f9590408c419a</t>
+  </si>
+  <si>
+    <t>Click on ServiceCatalog Requests</t>
+  </si>
+  <si>
+    <t>54 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed The RequestNumber</t>
+  </si>
+  <si>
+    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>Search for Requests</t>
+  </si>
+  <si>
+    <t>390 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked RequestNumber</t>
+  </si>
+  <si>
+    <t>REQ0010914</t>
+  </si>
+  <si>
+    <t>Click on request Number</t>
+  </si>
+  <si>
+    <t>4 Sec</t>
+  </si>
+  <si>
+    <t>92 Milli Sec</t>
+  </si>
+  <si>
+    <t>48 Milli Sec</t>
   </si>
   <si>
     <t>Error Occurred: Please Check the Logs</t>
   </si>
   <si>
-    <t>379 Milli Sec</t>
+    <t>23 Sec</t>
   </si>
   <si>
     <t>557</t>
+  </si>
+  <si>
+    <t>93 Milli Sec</t>
+  </si>
+  <si>
+    <t>56 Milli Sec</t>
+  </si>
+  <si>
+    <t>57 Milli Sec</t>
+  </si>
+  <si>
+    <t>46 Milli Sec</t>
+  </si>
+  <si>
+    <t>16 Milli Sec</t>
   </si>
 </sst>
 </file>
@@ -276,13 +921,1513 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="57">
+  <fonts count="357">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -684,7 +2829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -746,7 +2891,127 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -758,112 +3023,922 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="2">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="2">
@@ -948,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n" s="6">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="4">
@@ -962,6 +4037,926 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="156">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="157">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="158">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="159">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="160">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="161">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="162">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="163">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="164">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="165">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="166">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="167">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="168">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="169">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="170">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="171">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="172">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="173">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="174">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="175">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="176">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="177">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="178">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="179">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="180">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="181">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="182">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="183">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="184">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="185">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="186">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="187">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="188">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="189">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="190">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="191">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="192">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="193">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="194">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="195">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="196">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="197">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="198">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="199">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="200">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="201">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="202">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="203">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="204">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="205">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="206">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="207">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="208">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="209">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="210">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="211">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="212">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="213">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="214">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="215">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="216">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="217">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="218">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="219">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="220">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="221">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="222">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="223">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="224">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="225">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="226">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="227">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="228">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="229">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="230">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="231">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="232">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="233">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="234">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="235">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="236">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="237">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="238">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="239">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="240">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="241">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="242">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="243">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="244">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="245">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1089,29 +5084,809 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="25">
+      <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s" s="26">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="27">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="28">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s" s="29">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s" s="30">
+      <c r="E5" t="s">
         <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="23">
         <v>24</v>
       </c>
       <c r="H5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s" s="25">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="27">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s" s="29">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s" s="30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s" s="31">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s" s="35">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s" s="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s" s="37">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s" s="38">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s" s="40">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s" s="41">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s" s="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s" s="43">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s" s="44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s" s="47">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s" s="48">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s" s="49">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s" s="50">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s" s="51">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s" s="52">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s" s="53">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s" s="54">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s" s="55">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="56">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="57">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s" s="58">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s" s="59">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s" s="60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s" s="61">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s" s="62">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s" s="63">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s" s="64">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="66">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s" s="67">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s" s="68">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s" s="69">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s" s="70">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s" s="71">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s" s="72">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s" s="73">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s" s="74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s" s="76">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s" s="77">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s" s="78">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s" s="79">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s" s="80">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s" s="81">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s" s="82">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="85">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s" s="86">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="87">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="88">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s" s="89">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s" s="90">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s" s="83">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s" s="84">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1148,6 +5923,1166 @@
     <hyperlink location="'ATU_TC_4'!A1" ref="F5"/>
     <hyperlink location="'ATU_TC_4'!A1" ref="G5"/>
     <hyperlink location="'ATU_TC_4'!A1" ref="H5"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="A6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="B6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="C6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="D6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="E6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="F6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="G6"/>
+    <hyperlink location="'ATU_TC_5'!A1" ref="H6"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="A7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="B7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="C7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="D7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="E7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="F7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="G7"/>
+    <hyperlink location="'ATU_TC_6'!A1" ref="H7"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="A8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="B8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="C8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="D8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="E8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="F8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="G8"/>
+    <hyperlink location="'ATU_TC_7'!A1" ref="H8"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="A9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="B9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="C9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="D9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="E9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="F9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="G9"/>
+    <hyperlink location="'ATU_TC_8'!A1" ref="H9"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="A10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="B10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="C10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="D10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="E10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="F10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="G10"/>
+    <hyperlink location="'ATU_TC_9'!A1" ref="H10"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="A11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="B11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="C11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="D11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="E11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="F11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="G11"/>
+    <hyperlink location="'ATU_TC_10'!A1" ref="H11"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="A12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="B12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="C12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="D12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="E12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="F12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="G12"/>
+    <hyperlink location="'ATU_TC_11'!A1" ref="H12"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="A13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="B13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="C13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="D13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="E13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="F13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="G13"/>
+    <hyperlink location="'ATU_TC_12'!A1" ref="H13"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="A14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="B14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="C14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="D14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="E14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="F14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="G14"/>
+    <hyperlink location="'ATU_TC_13'!A1" ref="H14"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="A15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="B15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="C15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="D15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="E15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="F15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="G15"/>
+    <hyperlink location="'ATU_TC_14'!A1" ref="H15"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="A16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="B16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="C16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="D16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="E16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="F16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="G16"/>
+    <hyperlink location="'ATU_TC_15'!A1" ref="H16"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="A17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="B17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="C17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="D17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="E17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="F17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="G17"/>
+    <hyperlink location="'ATU_TC_16'!A1" ref="H17"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="A18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="B18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="C18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="D18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="E18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="F18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="G18"/>
+    <hyperlink location="'ATU_TC_17'!A1" ref="H18"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="A19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="B19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="C19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="D19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="E19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="F19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="G19"/>
+    <hyperlink location="'ATU_TC_18'!A1" ref="H19"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="A20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="B20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="C20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="D20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="E20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="F20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="G20"/>
+    <hyperlink location="'ATU_TC_19'!A1" ref="H20"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="A21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="B21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="C21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="D21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="E21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="F21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="G21"/>
+    <hyperlink location="'ATU_TC_20'!A1" ref="H21"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="A22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="B22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="C22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="D22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="E22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="F22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="G22"/>
+    <hyperlink location="'ATU_TC_21'!A1" ref="H22"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="A23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="B23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="C23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="D23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="E23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="F23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="G23"/>
+    <hyperlink location="'ATU_TC_22'!A1" ref="H23"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="A24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="B24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="C24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="D24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="E24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="F24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="G24"/>
+    <hyperlink location="'ATU_TC_23'!A1" ref="H24"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="A25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="B25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="C25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="D25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="E25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="F25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="G25"/>
+    <hyperlink location="'ATU_TC_24'!A1" ref="H25"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="A26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="B26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="C26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="D26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="E26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="F26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="G26"/>
+    <hyperlink location="'ATU_TC_25'!A1" ref="H26"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="A27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="B27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="C27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="D27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="E27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="F27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="G27"/>
+    <hyperlink location="'ATU_TC_26'!A1" ref="H27"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="A28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="B28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="C28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="D28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="E28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="F28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="G28"/>
+    <hyperlink location="'ATU_TC_27'!A1" ref="H28"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="A29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="B29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="C29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="D29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="E29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="F29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="G29"/>
+    <hyperlink location="'ATU_TC_28'!A1" ref="H29"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="A30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="B30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="C30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="D30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="E30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="F30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="G30"/>
+    <hyperlink location="'ATU_TC_29'!A1" ref="H30"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="A31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="B31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="C31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="D31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="E31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="F31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="G31"/>
+    <hyperlink location="'ATU_TC_30'!A1" ref="H31"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="A32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="B32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="C32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="D32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="E32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="F32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="G32"/>
+    <hyperlink location="'ATU_TC_31'!A1" ref="H32"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="A33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="B33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="C33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="D33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="E33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="F33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="G33"/>
+    <hyperlink location="'ATU_TC_32'!A1" ref="H33"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="A34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="B34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="C34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="D34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="E34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="F34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="G34"/>
+    <hyperlink location="'ATU_TC_33'!A1" ref="H34"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="A35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="B35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="C35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="D35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="E35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="F35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="G35"/>
+    <hyperlink location="'ATU_TC_34'!A1" ref="H35"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="246">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="247">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="248">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="249">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="250">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="251">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="252">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="253">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="254">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="255">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="256">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="257">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="258">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="259">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="260">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="261">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="262">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="263">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="264">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="265">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="266">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="267">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="268">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="269">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="270">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="271">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="272">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="273">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="274">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="275">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="276">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="277">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="278">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="279">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="280">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="281">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="282">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="283">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="284">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="285">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="286">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="287">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="288">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="289">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="290">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="291">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="292">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="293">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="294">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="295">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="296">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="297">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="298">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="299">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="300">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="301">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="302">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="303">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="304">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="305">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="306">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="307">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="308">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="309">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="310">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="311">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="312">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="313">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="314">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="315">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="316">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="317">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="318">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="319">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="320">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="321">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="322">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="323">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="324">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="325">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="326">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="327">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="328">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="329">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="330">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="331">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="332">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="333">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="334">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="335">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1173,29 +7108,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="33">
+      <c r="A1" t="s" s="93">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="34">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="35">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="36">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s" s="38">
+      <c r="B1" t="s" s="94">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="95">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="96">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="97">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="98">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="39">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s" s="40">
-        <v>34</v>
+      <c r="G1" t="s" s="99">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="100">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -1203,22 +7138,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1227,22 +7162,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1251,22 +7186,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1275,22 +7210,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1299,22 +7234,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1323,22 +7258,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1347,28 +7282,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="41">
-        <v>71</v>
+      <c r="A9" t="s" s="101">
+        <v>169</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1384,6 +7319,650 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink location="'TestSuite'!A1" ref="A9"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="336">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="337">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="338">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="339">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="340">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="341">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="342">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="343">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="344">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="345">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="346">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="347">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="348">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="349">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="350">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="351">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="352">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="353">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="354">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="355">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="356">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="357">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="358">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="359">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="360">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="361">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="362">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="363">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="364">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="365">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="366">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="367">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="368">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="369">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="370">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="371">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="372">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="373">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="374">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="375">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="376">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="377">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="378">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="379">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="380">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="381">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="382">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="383">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="384">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="385">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="386">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="387">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="388">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="389">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="390">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="391">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="392">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="393">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="394">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="395">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="396">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="397">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="398">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1409,34 +7988,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="42">
+      <c r="A1" t="s" s="102">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="43">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="44">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="45">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="46">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s" s="47">
+      <c r="B1" t="s" s="103">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="104">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="105">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="106">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="107">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="48">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s" s="49">
-        <v>34</v>
+      <c r="G1" t="s" s="108">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="109">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="50">
-        <v>71</v>
+      <c r="A2" t="s" s="110">
+        <v>169</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1477,29 +8056,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="51">
+      <c r="A1" t="s" s="111">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="52">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="53">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="54">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="55">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s" s="56">
+      <c r="B1" t="s" s="112">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="113">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="114">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="115">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="116">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="57">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s" s="58">
-        <v>34</v>
+      <c r="G1" t="s" s="117">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="118">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -1507,22 +8086,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1531,43 +8110,979 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="59">
-        <v>71</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
       <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="119">
+        <v>169</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A43:H43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A4"/>
+    <hyperlink location="'TestSuite'!A1" ref="A43"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1593,29 +9108,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="60">
+      <c r="A1" t="s" s="120">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="61">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="62">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="63">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="64">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s" s="65">
+      <c r="B1" t="s" s="121">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="122">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="123">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="124">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="125">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="66">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s" s="67">
-        <v>34</v>
+      <c r="G1" t="s" s="126">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="127">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -1623,28 +9138,304 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="H2"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="68">
-        <v>71</v>
+      <c r="A3" t="s" s="128">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="129">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="130">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="131">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="132">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="133">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="134">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="135">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="136">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="137">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="138">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="139">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="140">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="141">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="142">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="143">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="144">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="145">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="146">
+        <v>169</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="147">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="148">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="149">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s" s="150">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s" s="151">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s" s="152">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="153">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s" s="154">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="155">
+        <v>169</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
